--- a/data/vgp_database/Dinan_Bay_lavas.xlsx
+++ b/data/vgp_database/Dinan_Bay_lavas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BAA094-5B6C-924F-AD88-E3B1B358FE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97258F64-C906-A743-A83E-17C2B850CC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="76">
   <si>
     <t>Name:</t>
   </si>
@@ -264,42 +264,6 @@
   </si>
   <si>
     <t>10.1016/s0040-1951(00)00143-8:10.4095/131977</t>
-  </si>
-  <si>
-    <t>10.1016/s0040-1951(00)00143-8:10.4095/131978</t>
-  </si>
-  <si>
-    <t>10.1016/s0040-1951(00)00143-8:10.4095/131979</t>
-  </si>
-  <si>
-    <t>10.1016/s0040-1951(00)00143-8:10.4095/131980</t>
-  </si>
-  <si>
-    <t>10.1016/s0040-1951(00)00143-8:10.4095/131981</t>
-  </si>
-  <si>
-    <t>10.1016/s0040-1951(00)00143-8:10.4095/131982</t>
-  </si>
-  <si>
-    <t>10.1016/s0040-1951(00)00143-8:10.4095/131983</t>
-  </si>
-  <si>
-    <t>10.1016/s0040-1951(00)00143-8:10.4095/131984</t>
-  </si>
-  <si>
-    <t>10.1016/s0040-1951(00)00143-8:10.4095/131985</t>
-  </si>
-  <si>
-    <t>10.1016/s0040-1951(00)00143-8:10.4095/131986</t>
-  </si>
-  <si>
-    <t>10.1016/s0040-1951(00)00143-8:10.4095/131987</t>
-  </si>
-  <si>
-    <t>10.1016/s0040-1951(00)00143-8:10.4095/131988</t>
-  </si>
-  <si>
-    <t>10.1016/s0040-1951(00)00143-8:10.4095/131989</t>
   </si>
 </sst>
 </file>
@@ -667,7 +631,7 @@
   <dimension ref="A1:AQ1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AP9" sqref="AP9:AP21"/>
+      <selection activeCell="AP10" sqref="AP10:AP21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1475,8 +1439,9 @@
       <c r="AO10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP10" s="13" t="s">
-        <v>76</v>
+      <c r="AP10" s="13" t="str">
+        <f>AP9</f>
+        <v>10.1016/s0040-1951(00)00143-8:10.4095/131977</v>
       </c>
       <c r="AQ10" s="8"/>
     </row>
@@ -1584,8 +1549,9 @@
       <c r="AO11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP11" s="13" t="s">
-        <v>77</v>
+      <c r="AP11" s="13" t="str">
+        <f t="shared" ref="AP11:AP21" si="0">AP10</f>
+        <v>10.1016/s0040-1951(00)00143-8:10.4095/131977</v>
       </c>
       <c r="AQ11" s="8"/>
     </row>
@@ -1693,8 +1659,9 @@
       <c r="AO12" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP12" s="13" t="s">
-        <v>78</v>
+      <c r="AP12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/s0040-1951(00)00143-8:10.4095/131977</v>
       </c>
       <c r="AQ12" s="8"/>
     </row>
@@ -1802,8 +1769,9 @@
       <c r="AO13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP13" s="13" t="s">
-        <v>79</v>
+      <c r="AP13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/s0040-1951(00)00143-8:10.4095/131977</v>
       </c>
       <c r="AQ13" s="8"/>
     </row>
@@ -1911,8 +1879,9 @@
       <c r="AO14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP14" s="13" t="s">
-        <v>80</v>
+      <c r="AP14" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/s0040-1951(00)00143-8:10.4095/131977</v>
       </c>
       <c r="AQ14" s="8"/>
     </row>
@@ -2020,8 +1989,9 @@
       <c r="AO15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP15" s="13" t="s">
-        <v>81</v>
+      <c r="AP15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/s0040-1951(00)00143-8:10.4095/131977</v>
       </c>
       <c r="AQ15" s="8"/>
     </row>
@@ -2129,8 +2099,9 @@
       <c r="AO16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP16" s="13" t="s">
-        <v>82</v>
+      <c r="AP16" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/s0040-1951(00)00143-8:10.4095/131977</v>
       </c>
       <c r="AQ16" s="8"/>
     </row>
@@ -2238,8 +2209,9 @@
       <c r="AO17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP17" s="13" t="s">
-        <v>83</v>
+      <c r="AP17" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/s0040-1951(00)00143-8:10.4095/131977</v>
       </c>
       <c r="AQ17" s="8"/>
     </row>
@@ -2347,8 +2319,9 @@
       <c r="AO18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP18" s="13" t="s">
-        <v>84</v>
+      <c r="AP18" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/s0040-1951(00)00143-8:10.4095/131977</v>
       </c>
       <c r="AQ18" s="8"/>
     </row>
@@ -2456,8 +2429,9 @@
       <c r="AO19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP19" s="13" t="s">
-        <v>85</v>
+      <c r="AP19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/s0040-1951(00)00143-8:10.4095/131977</v>
       </c>
       <c r="AQ19" s="8"/>
     </row>
@@ -2565,8 +2539,9 @@
       <c r="AO20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP20" s="13" t="s">
-        <v>86</v>
+      <c r="AP20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/s0040-1951(00)00143-8:10.4095/131977</v>
       </c>
       <c r="AQ20" s="8"/>
     </row>
@@ -2674,8 +2649,9 @@
       <c r="AO21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP21" s="13" t="s">
-        <v>87</v>
+      <c r="AP21" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/s0040-1951(00)00143-8:10.4095/131977</v>
       </c>
       <c r="AQ21" s="8"/>
     </row>
